--- a/ことわざ集.xlsx
+++ b/ことわざ集.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{708B06E2-0B5B-4DFD-AA0B-3D0F6E38D189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B960CF1D-08B8-422D-AF1A-9D15C40A941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
+  <si>
+    <t>ことわざ</t>
+  </si>
+  <si>
+    <t>意味</t>
+  </si>
+  <si>
+    <t>レア度</t>
+  </si>
   <si>
     <t>後の祭</t>
   </si>
@@ -39,6 +48,9 @@
     <t>物事が終わった後に後悔をしても手遅れであるということ。</t>
   </si>
   <si>
+    <t>SSR</t>
+  </si>
+  <si>
     <t>雨降って地固まる</t>
   </si>
   <si>
@@ -69,6 +81,9 @@
     <t>縁起が良い夢を順に並べた語で、一番目が富士山、二番目が鳥の鷹、三番目が野菜の茄子。</t>
   </si>
   <si>
+    <t>SR</t>
+  </si>
+  <si>
     <t>一寸の虫にも五分の魂</t>
   </si>
   <si>
@@ -121,6 +136,9 @@
   </si>
   <si>
     <t>目立たないところで、人のために力をつくすこと。また、その人をさす。表舞台には出ないが、重要な役割を果たしている人のこと。</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>負うた子に教えられて浅瀬を渡る</t>
@@ -215,6 +233,9 @@
     <t>すでにしてしまったことを、後から悔やんでもどうにもならないということ。</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>弘法にも筆の誤り</t>
   </si>
   <si>
@@ -331,6 +352,9 @@
   </si>
   <si>
     <t>棚から牡丹餅</t>
+  </si>
+  <si>
+    <t>思いがけない幸運が巡ってくること。</t>
   </si>
 </sst>
 </file>
@@ -385,10 +409,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -732,413 +759,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="161.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="22.5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75">
+    <row r="4" spans="1:3" ht="22.5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="22.5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="22.5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.5">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5">
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.5">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5">
       <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19.5">
+    </row>
+    <row r="10" spans="1:3" ht="19.5">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="19.5">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.5">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19.5">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="19.5">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="19.5">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="19.5">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="19.5">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="19.5">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="19.5">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19.5">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.5">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="19.5">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.5">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="19.5">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.5">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="19.5">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="19.5">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="21" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="19.5">
-      <c r="A26" s="2" t="s">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="19.5">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.5">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="21" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19.5">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="19.5">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19.5">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="19.5">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="19.5">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="19.5">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="19.5">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="19.5">
-      <c r="A32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="19.5">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19.5">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="19.5">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="19.5">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.5">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="19.5">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.5">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="19.5">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.5">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="19.5">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.5">
       <c r="A38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="19.5">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19.5">
       <c r="A39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="19.5">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19.5">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="19.5">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19.5">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="19.5">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19.5">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="19.5">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19.5">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="19.5">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19.5">
       <c r="A44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="19.5">
+        <v>91</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19.5">
       <c r="A45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="19.5">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19.5">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="19.5">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19.5">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="19.5">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="19.5">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="19.5">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="19.5">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="19.5">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="19.5">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="19.5">
+      <c r="A51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/ことわざ集.xlsx
+++ b/ことわざ集.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27921"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B960CF1D-08B8-422D-AF1A-9D15C40A941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{004A3216-26D5-4859-AA83-E7B1F187B0AB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="158">
   <si>
     <t>ことわざ</t>
   </si>
@@ -42,58 +42,91 @@
     <t>レア度</t>
   </si>
   <si>
+    <t>ことわざの読み方</t>
+  </si>
+  <si>
     <t>後の祭</t>
   </si>
   <si>
-    <t>物事が終わった後に後悔をしても手遅れであるということ。</t>
+    <t>物事が終わった後に後悔をしても手遅れであるということ。（ヒント）祭</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>あとのまつり</t>
+  </si>
+  <si>
+    <t>雨降って地固まる</t>
+  </si>
+  <si>
+    <t>争いごとなど悪いことがあったあとに、前よりもよい関係になること。</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>あめふってぢかたまる</t>
+  </si>
+  <si>
+    <t>案ずるより産むが易し</t>
+  </si>
+  <si>
+    <t>何かをする前はあれこれと心配するが、実際にやってみると案外簡単にできるものだということ。</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>あんずるよりうむがやすし</t>
+  </si>
+  <si>
+    <t>石の上にも三年</t>
+  </si>
+  <si>
+    <t>どんなにつらいことでも、がまんして努力を続けていれば、必ずむくわれるという教え。</t>
+  </si>
+  <si>
+    <t>いしのうえにもさんねん</t>
+  </si>
+  <si>
+    <t>急がば回れ</t>
+  </si>
+  <si>
+    <t>急いでいる時は、少しぐらい危険でも近道をしたくなるが、遠回りでも安全な道を行ったほうが結局は早いことが多いということ。</t>
+  </si>
+  <si>
+    <t>いそがばまわれ</t>
+  </si>
+  <si>
+    <t>一富士二鷹三茄子</t>
+  </si>
+  <si>
+    <t>縁起が良い夢を順に並べた語で、一番目が富士山、二番目が鳥の鷹、三番目が野菜の茄子。</t>
+  </si>
+  <si>
+    <t>いちふじにたかさんなすび</t>
+  </si>
+  <si>
+    <t>一寸の虫にも五分の魂</t>
+  </si>
+  <si>
+    <t>どんな弱小なものにも、それ相応の意地や考えがあるのだから、ばかにしてはいけないということ。</t>
   </si>
   <si>
     <t>SSR</t>
   </si>
   <si>
-    <t>雨降って地固まる</t>
-  </si>
-  <si>
-    <t>争いごとなど悪いことがあったあとに、前よりもよい関係になること。</t>
-  </si>
-  <si>
-    <t>案ずるより産むが易い</t>
-  </si>
-  <si>
-    <t>何かをする前はあれこれと心配するが、実際にやってみると案外簡単にできるものだということ。</t>
-  </si>
-  <si>
-    <t>石の上にも三年</t>
-  </si>
-  <si>
-    <t>どんなにつらいことでも、がまんして努力を続けていれば、必ずむくわれるという教え。</t>
-  </si>
-  <si>
-    <t>急がば回れ</t>
-  </si>
-  <si>
-    <t>急いでいる時は、少しぐらい危険でも近道をしたくなるが、遠回りでも安全な道を行ったほうが結局は早いことが多いということ。</t>
-  </si>
-  <si>
-    <t>一富士二鷹三茄子</t>
-  </si>
-  <si>
-    <t>縁起が良い夢を順に並べた語で、一番目が富士山、二番目が鳥の鷹、三番目が野菜の茄子。</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>一寸の虫にも五分の魂</t>
-  </si>
-  <si>
-    <t>どんな弱小なものにも、それ相応の意地や考えがあるのだから、ばかにしてはいけないということ。</t>
+    <t>いっすんのむしにもごふんのたましい</t>
   </si>
   <si>
     <t>犬も歩けば棒に当たる</t>
   </si>
   <si>
-    <t>出しゃばって何かをしようとすれば、思いがけない災難にあうということ。</t>
+    <t>出しゃばって何かをしようとすれば、思いがけない災難にあうということ。（ヒント）犬</t>
+  </si>
+  <si>
+    <t>いぬもあるけばぼうにあたる</t>
   </si>
   <si>
     <t>命あっての物種</t>
@@ -102,43 +135,61 @@
     <t>何事も命あっての上のことで、命を大切にしなければいけないということ。</t>
   </si>
   <si>
+    <t>いのちあってのものだね</t>
+  </si>
+  <si>
     <t>井の中の蛙</t>
   </si>
   <si>
     <t>自分の身の回りのことしか知らないで、もっと広い世界があることを知らないこと。世間知らず。</t>
   </si>
   <si>
+    <t>いのなかのかわず</t>
+  </si>
+  <si>
     <t>魚心あれば水心</t>
   </si>
   <si>
     <t>自分が相手に好意を持てば、相手も自分に好意をもってくれること。</t>
   </si>
   <si>
+    <t>うおごころあればみずごころ</t>
+  </si>
+  <si>
     <t>馬の耳に念仏</t>
   </si>
   <si>
     <t>何か注意されたり意見を言われたりしても、ぜんぜん聞く耳をもたず、効き目がないこと。</t>
   </si>
   <si>
+    <t>うまのみみにねんぶつ</t>
+  </si>
+  <si>
     <t>噂をすれば影がさす</t>
   </si>
   <si>
     <t>ある人の噂をすると当人がそこに現れるものだ。</t>
   </si>
   <si>
+    <t>うわさをすればかげがさす</t>
+  </si>
+  <si>
     <t>海老で鯛を釣る</t>
   </si>
   <si>
     <t>あまりお金をかけたり苦労したりせず、大きく得をすること。</t>
   </si>
   <si>
+    <t>えびでたいをつる</t>
+  </si>
+  <si>
     <t>縁の下の力持ち</t>
   </si>
   <si>
     <t>目立たないところで、人のために力をつくすこと。また、その人をさす。表舞台には出ないが、重要な役割を果たしている人のこと。</t>
   </si>
   <si>
-    <t>R</t>
+    <t>えんのしたのちからもち</t>
   </si>
   <si>
     <t>負うた子に教えられて浅瀬を渡る</t>
@@ -147,53 +198,80 @@
     <t>時には、自分よりも年下の者や未熟な者から教えられることがあることのたとえ。</t>
   </si>
   <si>
+    <t>おうたこにおしえられてあさせをわたる</t>
+  </si>
+  <si>
     <t>鬼に金棒</t>
   </si>
   <si>
     <t>ただえさえ強い人が、何かを得たり、良い条件が加わったりして、さらに強さを増すこと。</t>
   </si>
   <si>
+    <t>おににかなぼう</t>
+  </si>
+  <si>
     <t>帯に短し襷に長し</t>
   </si>
   <si>
     <t>どちらつかずで、中途半端で、何の役にも立たないたとえ。</t>
   </si>
   <si>
+    <t>おびにみじかしたすきにながし</t>
+  </si>
+  <si>
     <t>溺れる者は藁をもつかむ</t>
   </si>
   <si>
     <t>とても苦しんだり、困っていたりする人は、どんなに頼りないものにもすがりつき、救いを求めることのたとえ。</t>
   </si>
   <si>
+    <t>おぼれるものはわらをもつかむ</t>
+  </si>
+  <si>
     <t>思い立ったが吉日</t>
   </si>
   <si>
     <t>なにかをしようと思いついたら、すぐに実行したほうがいいというたとえ。</t>
   </si>
   <si>
+    <t>おもいたったがきちじつ</t>
+  </si>
+  <si>
     <t>親の心子知らず</t>
   </si>
   <si>
     <t>子供は親の気持ちをちっとも理解せず、勝手な振る舞いをすること。また、実際に親になってみなければ、親の気持ちというものは理解できないという意味。</t>
   </si>
   <si>
+    <t>おやのこころこしらず</t>
+  </si>
+  <si>
     <t>蛙の子は蛙</t>
   </si>
   <si>
     <t>子どもは、幼い頃は親と異なる特徴を持ったり、親の職業に関心がないこともあるが、最終的には親に似る傾向があったり、親が歩んだ道を選ぶことがよくある。</t>
   </si>
   <si>
-    <t>壁に耳あり</t>
+    <t>かえるのこはかえる</t>
+  </si>
+  <si>
+    <t>壁に耳あり障子に目あり</t>
   </si>
   <si>
     <t xml:space="preserve">内緒話をするときは、どこでだれが見たり聞いたりしているかわからないので、気をつけた方がよいという教え。
 </t>
   </si>
   <si>
+    <t>かべにみみありしょうじにめあり</t>
+  </si>
+  <si>
     <t>亀の甲より年の功</t>
   </si>
   <si>
     <t>年長者が長年の経験を積んでいるために、若者が持つ知識や技能を超える、特別な知恵や能力を持っていることを称賛すること</t>
+  </si>
+  <si>
+    <t>かめのこうよりとしのこう</t>
   </si>
   <si>
     <t>可愛い子には旅をさせよ</t>
@@ -203,50 +281,71 @@
 </t>
   </si>
   <si>
+    <t>かわいいこにはたびをさせよ</t>
+  </si>
+  <si>
     <t>聞くは一時の恥、聞かぬは一生の恥</t>
   </si>
   <si>
     <t>自分の知らないことはそのままにせず、積極的に聞いたほうが良いという意味。</t>
   </si>
   <si>
+    <t>きくはいっときのはじ、きかぬはいっしょうのはじ</t>
+  </si>
+  <si>
     <t>腐っても鯛</t>
   </si>
   <si>
     <t>本来価値のある人や物は、時間が経ったり条件が変わったりしても、それなりの値打ちがあるものだというたとえ。</t>
   </si>
   <si>
+    <t>くさってもたい</t>
+  </si>
+  <si>
     <t>苦しいときの神頼み</t>
   </si>
   <si>
     <t>普段は信仰心をもたないものが、病気や災難などにあって苦しいときにだけ、神に祈ってあてにすること。</t>
   </si>
   <si>
+    <t>くるしいときのかみだのみ</t>
+  </si>
+  <si>
     <t>怪我の功名</t>
   </si>
   <si>
     <t>失敗したと思ったことや何気なくやったことが、思いがけずにいい結果を生むこと。</t>
   </si>
   <si>
+    <t>けがのこうみょう</t>
+  </si>
+  <si>
     <t>後悔先に立たず</t>
   </si>
   <si>
-    <t>すでにしてしまったことを、後から悔やんでもどうにもならないということ。</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>すでにしてしまったことを、後から悔やんでもどうにもならないということ。（ヒント）ずで終わるよ！</t>
+  </si>
+  <si>
+    <t>こうかいさきにたたず</t>
   </si>
   <si>
     <t>弘法にも筆の誤り</t>
   </si>
   <si>
-    <t xml:space="preserve">どんな名人でも、まちがえることがあるということ。
+    <t xml:space="preserve">どんな名人でも、まちがえることがあるということ。（ヒント）筆
 </t>
   </si>
   <si>
+    <t>こうぼうにもふでのあやまり</t>
+  </si>
+  <si>
     <t>転ばぬ先の杖</t>
   </si>
   <si>
-    <t>事前に準備や対策をしておくことで、将来起こりうる問題や困難を防ぐためのこと</t>
+    <t>事前に準備や対策をしておくことで、将来起こりうる問題や困難を防ぐためのこと（ヒント）杖</t>
+  </si>
+  <si>
+    <t>ころばぬさきのつえ</t>
   </si>
   <si>
     <t>紺屋の白袴</t>
@@ -255,10 +354,16 @@
     <t>商売に忙しくて、自分のすることをする暇のないこと。</t>
   </si>
   <si>
+    <t>こんやのしろばかま</t>
+  </si>
+  <si>
     <t>猿も木から落ちる</t>
   </si>
   <si>
-    <t>どんな名人でも、たまには失敗をすることがあるということ。</t>
+    <t>どんな名人でも、たまには失敗をすることがあるということ。(ヒント)猿</t>
+  </si>
+  <si>
+    <t>さるもきからおちる</t>
   </si>
   <si>
     <t>三人寄れば文殊の知恵</t>
@@ -267,94 +372,142 @@
     <t>ひとりひとりは普通の能力しかない人たちでも、三人集まって協力し合えば、普段思いつかないような素晴らしいアイデアや解決策が出てくるという意味</t>
   </si>
   <si>
+    <t>さんにんよればもんじゅのちえ</t>
+  </si>
+  <si>
     <t>親しき仲にも礼儀あり</t>
   </si>
   <si>
     <t>とても親しく仲の良い関係であっても、礼儀は守るべきであり大切なことであるというたとえ。</t>
   </si>
   <si>
+    <t>したしきなかにもれいぎあり</t>
+  </si>
+  <si>
     <t>釈迦に説法</t>
   </si>
   <si>
     <t>その道を知り尽くしている相手に、不必要なことを教えることのたとえ。</t>
   </si>
   <si>
+    <t>しゃかにせっぽう</t>
+  </si>
+  <si>
     <t>朱に交われば赤くなる</t>
   </si>
   <si>
     <t>交際する人間や置かれた環境で、人は良くも悪くもなるということ。</t>
   </si>
   <si>
+    <t>しゅにまじわればあかくなる</t>
+  </si>
+  <si>
     <t>知らぬが仏</t>
   </si>
   <si>
     <t>知れば腹も立ち、悩んだりもするけれど、知らなければ仏のように心を動かされずに穏やかでいられるということ。</t>
   </si>
   <si>
+    <t>しらぬがほとけ</t>
+  </si>
+  <si>
     <t>好きこそ物の上手なれ</t>
   </si>
   <si>
     <t>好きなことは一生懸命取り組み、工夫したり勉強したりするのでおのずと上達するというたとえ。</t>
   </si>
   <si>
+    <t>すきこそもののじょうずなれ</t>
+  </si>
+  <si>
     <t>過ぎたるは及ばざるが如し</t>
   </si>
   <si>
     <t>物事をやりすぎることは、足りないことと同じようによくない。過不足なく、ほどほどがちょうどいいというたとえ。</t>
   </si>
   <si>
+    <t>すぎたるはおよばざるがごとし</t>
+  </si>
+  <si>
     <t>雀百まで踊り忘れず</t>
   </si>
   <si>
     <t>子供のときに覚えた習慣やくせは、年を取っても直らないということ。</t>
   </si>
   <si>
+    <t>すずめひゃくまでおどりわすれず</t>
+  </si>
+  <si>
     <t>背に腹はかえられぬ</t>
   </si>
   <si>
     <t>さし迫った苦痛を回避するためには、ほかのことを犠牲にしてもしかたない。不本意でも、大きなことをするためには、小さな犠牲には構っていられないというたとえ。</t>
   </si>
   <si>
+    <t>せにはらはかえられぬ</t>
+  </si>
+  <si>
     <t>地震雷火事親父</t>
   </si>
   <si>
     <t>世の中で恐ろしいとされるものを、順番に並べた言葉。</t>
   </si>
   <si>
+    <t>じしんかみなりかじおやじ</t>
+  </si>
+  <si>
     <t>船頭多くして船山へ上る</t>
   </si>
   <si>
     <t>指図する人が多すぎると、方針が統一できずに、物事がうまく運ばないこと。</t>
   </si>
   <si>
+    <t>せんどうおおくしてふねやまへのぼる</t>
+  </si>
+  <si>
     <t>善は急げ</t>
   </si>
   <si>
     <t>よいことを思いついたら、すぐにやろうということ。</t>
   </si>
   <si>
+    <t>ぜんはいそげ</t>
+  </si>
+  <si>
     <t>千里の道も一歩から</t>
   </si>
   <si>
     <t>どんなに大きな事業でも、まずは手近なことの実行から始まるということ。</t>
   </si>
   <si>
+    <t>せんりのみちもいっぽから</t>
+  </si>
+  <si>
     <t>損して得取れ</t>
   </si>
   <si>
     <t>目の前のちょっとした損をしても、あとでそれをもとにして大きな利益をとるようにしたほうがいいというたとえ。</t>
   </si>
   <si>
+    <t>そんしてとくとれ</t>
+  </si>
+  <si>
     <t>立つ鳥跡を濁さず</t>
   </si>
   <si>
     <t>自分のいた場所を立ち去るときは、きちんと後始末をしていきなさいという教え。</t>
   </si>
   <si>
+    <t>たつとりあとをにごさず</t>
+  </si>
+  <si>
     <t>棚から牡丹餅</t>
   </si>
   <si>
     <t>思いがけない幸運が巡ってくること。</t>
+  </si>
+  <si>
+    <t>たなからぼたもち</t>
   </si>
 </sst>
 </file>
@@ -759,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -770,9 +923,10 @@
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="161.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,555 +936,708 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="22.5">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.5">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.5">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.5">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.5">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75">
-      <c r="A7" t="s">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.5">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.5">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.5">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.5">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19.5">
-      <c r="A13" s="2" t="s">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.5">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.5">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.5">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="19.5">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19.5">
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.5">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.5">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.5">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.5">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.5">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.5">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19.5">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="23.25" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="23.25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.5">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="21" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.5">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="19.5">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.5">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="19.5">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.5">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="19.5">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.5">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="19.5">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.5">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="21.75" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.5">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="19.5">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.5">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19.5">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="19.5">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="19.5">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="19.5">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="19.5">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="19.5">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="19.5">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="19.5">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="19.5">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="19.5">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19.5">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="19.5">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19.5">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="19.5">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19.5">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/ことわざ集.xlsx
+++ b/ことわざ集.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27930"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{004A3216-26D5-4859-AA83-E7B1F187B0AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57484062-FA27-4FC6-8203-50E7B320DE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="308">
   <si>
     <t>ことわざ</t>
   </si>
@@ -459,7 +459,7 @@
     <t>船頭多くして船山へ上る</t>
   </si>
   <si>
-    <t>指図する人が多すぎると、方針が統一できずに、物事がうまく運ばないこと。</t>
+    <t>指図する人が多すぎると、方針が統一できずに、物事がうまく運ばないこと。（ヒント）へ</t>
   </si>
   <si>
     <t>せんどうおおくしてふねやまへのぼる</t>
@@ -508,6 +508,471 @@
   </si>
   <si>
     <t>たなからぼたもち</t>
+  </si>
+  <si>
+    <t>旅は道連れ世は情け</t>
+  </si>
+  <si>
+    <t>旅をするときは誰かと一緒だとお互いに助け合えるように、世の中をわたるのも、お互いに思いやりを持って助け合うことが大事だということ。</t>
+  </si>
+  <si>
+    <t>たびはみちづれよはなさけ</t>
+  </si>
+  <si>
+    <t>塵も積もれば山となる</t>
+  </si>
+  <si>
+    <t>小さいことでも積み重ねれば大きなことになるということ。</t>
+  </si>
+  <si>
+    <t>ちりもつもればやまとなる</t>
+  </si>
+  <si>
+    <t>月とすっぽん</t>
+  </si>
+  <si>
+    <t>二つのものを比べたら、あまりにちがっていることのたとえ。</t>
+  </si>
+  <si>
+    <t>つきとすっぽん</t>
+  </si>
+  <si>
+    <t>鉄は熱いうちに打て</t>
+  </si>
+  <si>
+    <t>鉄は熱して軟らかいうちに打って鍛えるように、人も純粋な気持ちを失わない若いうちに鍛練すべきである。また、物事を行うには、それに適切な時期を失してはいけない。</t>
+  </si>
+  <si>
+    <t>てつはあついうちにうて</t>
+  </si>
+  <si>
+    <t>灯台下暗し</t>
+  </si>
+  <si>
+    <t>自分のことや身近なことは、かえって気がつきにくいということ。</t>
+  </si>
+  <si>
+    <t>とうだいもとくらし</t>
+  </si>
+  <si>
+    <t>遠くの親類より近くの他人</t>
+  </si>
+  <si>
+    <t>離れた所に住む付き合いのない親戚より、近くに住む日頃から付き合いのある他人の方が頼りになる。</t>
+  </si>
+  <si>
+    <t>とおくのおやくによりちかくのたにん</t>
+  </si>
+  <si>
+    <t>時は金なり</t>
+  </si>
+  <si>
+    <t>時間は貴重で有効なものだから、大切に使うべきだということ。</t>
+  </si>
+  <si>
+    <t>ときはかねなり</t>
+  </si>
+  <si>
+    <t>取らぬ狸の皮算用</t>
+  </si>
+  <si>
+    <t>実際にまだ自分の物になっていない、手に入るかどうかもわからない不確かなものや利益に期待をかけて、計画を練る事。</t>
+  </si>
+  <si>
+    <t>とらぬたぬきのかわざんよう</t>
+  </si>
+  <si>
+    <t>飛んで火に入る夏の虫</t>
+  </si>
+  <si>
+    <t>自ら危険や災難に進んで、飛び込んでいく事。自らを滅ぼすような禍の中に、進んで身を投じる事。</t>
+    <rPh sb="24" eb="25">
+      <t>ほろ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>わざわい</t>
+    </rPh>
+    <phoneticPr fontId="0" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>とんでひにいるなつのむし</t>
+  </si>
+  <si>
+    <t>ない袖は振れない</t>
+  </si>
+  <si>
+    <t>持っていないお金は、出してあげたくても出せないということ。</t>
+  </si>
+  <si>
+    <t>ないそではふれない</t>
+  </si>
+  <si>
+    <t>泣きっ面に蜂</t>
+  </si>
+  <si>
+    <t>悪い事が起きた中で、更に悪い事が重なっておこること。</t>
+  </si>
+  <si>
+    <t>なきっつらにはち</t>
+  </si>
+  <si>
+    <t>無くて七癖</t>
+  </si>
+  <si>
+    <t>人はだれでも、癖があるので、ないように見える人でも七つぐらいは、癖があるものだ。</t>
+  </si>
+  <si>
+    <t>なくてななくせ</t>
+  </si>
+  <si>
+    <t>情けは人の為ならず</t>
+  </si>
+  <si>
+    <t>人に親切にしておくと、それはめぐりめぐって、やがて自分のためになるのだから、人には親切にしなさいとの教え。</t>
+  </si>
+  <si>
+    <t>なさけはひとのためならず</t>
+  </si>
+  <si>
+    <t>七転び八起き</t>
+  </si>
+  <si>
+    <t>度重なる失敗にも屈せず奮起することのたとえ。また、人生の浮き沈みがはなはだしいことのたとえ。</t>
+  </si>
+  <si>
+    <t>ななころびやおき</t>
+  </si>
+  <si>
+    <t>七度たずねて人を疑え</t>
+  </si>
+  <si>
+    <t>自分の物が見つからない時には、何度も良く探して、それでも見つからなかったら初めて人を疑いなさいといった意味。</t>
+  </si>
+  <si>
+    <t>ななどたずねてひとをうたがえ</t>
+  </si>
+  <si>
+    <t>習うより慣れよ</t>
+  </si>
+  <si>
+    <t>物事は、人に教わるよりも自分で直接体験してゆく方が身につくということ。</t>
+  </si>
+  <si>
+    <t>ならうよりなれよ</t>
+  </si>
+  <si>
+    <t>二度あることは三度ある</t>
+  </si>
+  <si>
+    <t>二度も同じようなことがあると、さらにもう一度続いておこる可能性が高くなる。物事は繰り返されることが多いので油断してはならないという意味。悪いことに使う。</t>
+  </si>
+  <si>
+    <t>にどあることはさんどある</t>
+  </si>
+  <si>
+    <t>二兎を追う者は一兎をも得ず</t>
+  </si>
+  <si>
+    <t>よくばって二つのことをいっぺんにやろうとして、結局両方ともできなくなること。</t>
+  </si>
+  <si>
+    <t>にとをおうものはいっともえず</t>
+  </si>
+  <si>
+    <t>濡れ手で粟</t>
+  </si>
+  <si>
+    <t>何の苦労もしないで、もうけること。</t>
+  </si>
+  <si>
+    <t>ぬれてであわ</t>
+  </si>
+  <si>
+    <t>猫に小判</t>
+  </si>
+  <si>
+    <t>どれほど貴重なもの・高価なもの・価値のあるものでも、持ち主がそれを知らなければ何の値打ちもない。すばらしいものを見せても、効果や反応がない事を意味することもある。（ヒント）猫</t>
+  </si>
+  <si>
+    <t>ねこにこばん</t>
+  </si>
+  <si>
+    <t>寝耳に水</t>
+  </si>
+  <si>
+    <t>思いがけない出来事が、突然起きてびっくりする様子。（ヒント）水</t>
+  </si>
+  <si>
+    <t>ねみみにみず</t>
+  </si>
+  <si>
+    <t>能ある鷹は爪を隠す</t>
+  </si>
+  <si>
+    <t>実力や才能のある者は、むやみにそれを表に出さず、いざという時にだけその力を発揮するという意味。</t>
+  </si>
+  <si>
+    <t>のうあるたかはつめをかくす</t>
+  </si>
+  <si>
+    <t>喉もと過ぎれば熱さを忘れる</t>
+  </si>
+  <si>
+    <t>どんな苦痛や苦労も、それが過ぎると、その苦痛も苦労も忘れてしまうということ。また、苦しい時に助けてもらった恩や恩人を、楽になったら人は簡単に忘れてしまうという戒めの意味もある。（ヒント）を</t>
+  </si>
+  <si>
+    <t>のどもとすぎればあつさをわすれる</t>
+  </si>
+  <si>
+    <t>暖簾に腕押し</t>
+  </si>
+  <si>
+    <t>相手の反応や手応えがない事や、張り合いがないという意味。</t>
+  </si>
+  <si>
+    <t>のれんにうでおし</t>
+  </si>
+  <si>
+    <t>花より団子</t>
+  </si>
+  <si>
+    <t>花見などという風流なことよりも、食べるほうが大事というたとえ。外観よりも実質を、虚栄より実益を重んじること。また、風流を解さないことのたとえにも用いる。</t>
+  </si>
+  <si>
+    <t>はなよりだんご</t>
+  </si>
+  <si>
+    <t>早起きは三文の得</t>
+  </si>
+  <si>
+    <t>朝早く起きれば健康にもよく、何かしらよいことがあるという意味。</t>
+  </si>
+  <si>
+    <t>はやおきはさんもんのとく</t>
+  </si>
+  <si>
+    <t>人の噂も七十五日</t>
+  </si>
+  <si>
+    <t>人の噂は長く続くものではなく、七十五日もすれば忘れられてしまうものだということ。</t>
+  </si>
+  <si>
+    <t>ひとのうわさもななじゅうごにち</t>
+  </si>
+  <si>
+    <t>人のふり見て我がふり直せ</t>
+  </si>
+  <si>
+    <t>他人の行いの善し悪しを見て参考にすることで、自分の行いを見直し欠点を改めるように心がけると良いというたとえ。</t>
+  </si>
+  <si>
+    <t>ひとのふりみてわがふりなおせ</t>
+  </si>
+  <si>
+    <t>火のない所に煙は立たない</t>
+  </si>
+  <si>
+    <t>原因のない所に噂は立たないというたとえ。</t>
+  </si>
+  <si>
+    <t>ひのないところにけむりはたたない</t>
+  </si>
+  <si>
+    <t>百聞は一見にしかず</t>
+  </si>
+  <si>
+    <t>物事は、耳で何度も聞くより、一度実際に自分の目で見るほうがたしかだということ。</t>
+  </si>
+  <si>
+    <t>ひゃくぶんはいっけんにしかず</t>
+  </si>
+  <si>
+    <t>瓢箪から駒</t>
+  </si>
+  <si>
+    <t>思いがけないようなことがおこること。また、冗談のつもりだったことが、現実に起こること。（ヒント）駒</t>
+  </si>
+  <si>
+    <t>ひょうたんからこま</t>
+  </si>
+  <si>
+    <t>豚に真珠</t>
+  </si>
+  <si>
+    <t>値打ちがわからない者に、どんなに立派な物をあたえても役に立たないということ。（ヒント）豚</t>
+  </si>
+  <si>
+    <t>ぶたにしんじゅ</t>
+  </si>
+  <si>
+    <t>下手の横好き</t>
+  </si>
+  <si>
+    <t>趣味などで下手にもかかわらず、好きで熱心である事。</t>
+  </si>
+  <si>
+    <t>へたのよこずき</t>
+  </si>
+  <si>
+    <t>仏の顔も三度まで</t>
+  </si>
+  <si>
+    <t>どんなに心の広い人でも、何度もひどいことをされれば、ついには怒りだすということ。</t>
+  </si>
+  <si>
+    <t>ほとけのかおもさんどまで</t>
+  </si>
+  <si>
+    <t>負けるが勝ち</t>
+  </si>
+  <si>
+    <t>無理に相手と争うよりも、勝ちをゆずる方が結果的には得になる。</t>
+  </si>
+  <si>
+    <t>まけるがかち</t>
+  </si>
+  <si>
+    <t>馬子にも衣装</t>
+  </si>
+  <si>
+    <t>身なりを整えれば、どんな人間でも立派に見えるというたとえ。</t>
+  </si>
+  <si>
+    <t>まこにもいしょう</t>
+  </si>
+  <si>
+    <t>待てば海路の日和あり</t>
+  </si>
+  <si>
+    <t>今は思うようにいかなくても、あせらずに待っていれば、良いことはそのうちにやってくるということ。</t>
+  </si>
+  <si>
+    <t>まてばかいろのひよりあり</t>
+  </si>
+  <si>
+    <t>ミイラ取りがミイラになる</t>
+  </si>
+  <si>
+    <t>人を捜しに行った者がそのまま帰ってこないで、捜される立場になってしまうこと。また、人を説得に行った者が、かえって説得され、先方と同意見になってしまうこと。</t>
+    <rPh sb="2" eb="3">
+      <t>さが</t>
+    </rPh>
+    <phoneticPr fontId="0" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>みいらとりがみいらになる</t>
+  </si>
+  <si>
+    <t>身から出た錆</t>
+  </si>
+  <si>
+    <t>自分でした悪い言動が原因で、苦しんだり、ひどい目にあったりすることのたとえ。</t>
+  </si>
+  <si>
+    <t>みからでたさび</t>
+  </si>
+  <si>
+    <t>三つ子の魂百まで</t>
+  </si>
+  <si>
+    <t>幼いころの性格は、年をとっても変わらないということ。</t>
+  </si>
+  <si>
+    <t>みつごのたましいひゃくまで</t>
+  </si>
+  <si>
+    <t>餅は餅屋</t>
+  </si>
+  <si>
+    <t>何事も、それぞれに専門家がいるので、まかせたほうがよい、素人はかなわないということ。（ヒント）餅</t>
+  </si>
+  <si>
+    <t>もちはもちや</t>
+  </si>
+  <si>
+    <t>焼け石に水</t>
+  </si>
+  <si>
+    <t>努力や援助がわずかでは、効果がほとんど期待できないことのたとえ。</t>
+  </si>
+  <si>
+    <t>やけいしにみず</t>
+  </si>
+  <si>
+    <t>安物買いの銭失い</t>
+  </si>
+  <si>
+    <t>安いからといって物を買っても、品質が悪かったり、使い道がなかったり、役に立たなくて、高い物を買うよりも、結局損をすることになるということ。</t>
+  </si>
+  <si>
+    <t>やすものがいのぜにうしない</t>
+  </si>
+  <si>
+    <t>楽あれば苦あり</t>
+  </si>
+  <si>
+    <t>人生は楽しいことばかり続くのでも、苦しいことばかり続くのでもない。</t>
+  </si>
+  <si>
+    <t>らくあればくあり</t>
+  </si>
+  <si>
+    <t>良薬は口に苦し</t>
+  </si>
+  <si>
+    <t>役に立つような忠告は、聞くのがつらいものだということ。</t>
+    <rPh sb="7" eb="9">
+      <t>ちゅうこく</t>
+    </rPh>
+    <phoneticPr fontId="0" type="halfwidthKatakana" alignment="noControl"/>
+  </si>
+  <si>
+    <t>りょうやくはくちににがし</t>
+  </si>
+  <si>
+    <t>論より証拠</t>
+  </si>
+  <si>
+    <t>物事は議論よりも、証拠によって明らかになるということ。また、具体的な事実にものをいわせるのは、説得への第一歩であるということ。</t>
+  </si>
+  <si>
+    <t>ろんよりしょうこ</t>
+  </si>
+  <si>
+    <t>我が身をつねって人の痛さを知れ</t>
+  </si>
+  <si>
+    <t>人の痛みや苦しみを自分のことのように考えて、相手を思いやるようにしなさい、ということ。自分がされていやなことは、相手にするなということ。</t>
+  </si>
+  <si>
+    <t>わがみをつねってひとのいたさをしれ</t>
+  </si>
+  <si>
+    <t>禍を転じて福となす</t>
+  </si>
+  <si>
+    <t>身にふりかかる災難を活用して、自分に役立つものとして利用するさま。不幸なことが一転して幸福に転じるさま。</t>
+  </si>
+  <si>
+    <t>わざわいをてんじてふくとなす</t>
+  </si>
+  <si>
+    <t>渡る世間に鬼はない</t>
+  </si>
+  <si>
+    <t>この世の中には、鬼のように冷たい人ばかりではなく、思いやりのある優しい人も必ずいる。</t>
+  </si>
+  <si>
+    <t>わたるせけんにおにはない</t>
+  </si>
+  <si>
+    <t>笑う門には福来たる</t>
+  </si>
+  <si>
+    <t>いつも明るくほがらかに暮らしている人の家には、自然に幸せがやってくるものだ。</t>
+  </si>
+  <si>
+    <t>わらうかどにはふくきたる</t>
   </si>
 </sst>
 </file>
@@ -542,12 +1007,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -562,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,6 +1048,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,16 +1386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="B87" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="161.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="194" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1640,6 +2114,707 @@
         <v>157</v>
       </c>
     </row>
+    <row r="52" spans="1:4" ht="19.5">
+      <c r="A52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19.5">
+      <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19.5">
+      <c r="A54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.5">
+      <c r="A55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.5">
+      <c r="A56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="24">
+      <c r="A57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="24">
+      <c r="A58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19.5">
+      <c r="A59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5">
+      <c r="A60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5">
+      <c r="A61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="24">
+      <c r="A62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5">
+      <c r="A63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19.5">
+      <c r="A64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19.5">
+      <c r="A65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.5">
+      <c r="A66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5">
+      <c r="A67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.5">
+      <c r="A68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="24">
+      <c r="A69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5">
+      <c r="A70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.5">
+      <c r="A71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.5">
+      <c r="A72" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="24">
+      <c r="A73" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19.5">
+      <c r="A74" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19.5">
+      <c r="A75" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19.5">
+      <c r="A76" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19.5">
+      <c r="A77" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19.5">
+      <c r="A78" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19.5">
+      <c r="A79" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19.5">
+      <c r="A80" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.5">
+      <c r="A81" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19.5">
+      <c r="A82" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="24">
+      <c r="A83" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="24">
+      <c r="A84" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="19.5">
+      <c r="A85" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="19.5">
+      <c r="A86" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19.5">
+      <c r="A87" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="19.5">
+      <c r="A88" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="19.5">
+      <c r="A89" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="24">
+      <c r="A90" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="24">
+      <c r="A91" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="19.5">
+      <c r="A92" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="24">
+      <c r="A93" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="19.5">
+      <c r="A94" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="24">
+      <c r="A95" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="19.5">
+      <c r="A96" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="19.5">
+      <c r="A97" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="19.5">
+      <c r="A98" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="19.5">
+      <c r="A99" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="24">
+      <c r="A100" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="19.5">
+      <c r="A101" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ことわざ集.xlsx
+++ b/ことわざ集.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27930"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57484062-FA27-4FC6-8203-50E7B320DE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E7BE1D-47D6-4642-8C4F-67222384765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,13 +284,13 @@
     <t>かわいいこにはたびをさせよ</t>
   </si>
   <si>
-    <t>聞くは一時の恥、聞かぬは一生の恥</t>
+    <t>聞くは一時の恥聞かぬは一生の恥</t>
   </si>
   <si>
     <t>自分の知らないことはそのままにせず、積極的に聞いたほうが良いという意味。</t>
   </si>
   <si>
-    <t>きくはいっときのはじ、きかぬはいっしょうのはじ</t>
+    <t>きくはいっときのはじきかぬはいっしょうのはじ</t>
   </si>
   <si>
     <t>腐っても鯛</t>
@@ -1388,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B87" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
